--- a/fuentes/contenidos/grado11/guion10/esqueletoGuion_CN_11_10_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion10/esqueletoGuion_CN_11_10_CO.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="111">
   <si>
     <t>TITULO</t>
   </si>
@@ -224,11 +224,7 @@
     <t>si</t>
   </si>
   <si>
-    <t xml:space="preserve">La química orgánica 
-La química orgánica 
-La química orgánica 
-La química orgánica 
-La química orgánica </t>
+    <t xml:space="preserve">La química orgánica </t>
   </si>
   <si>
     <t>Texto</t>
@@ -246,13 +242,7 @@
     <t>Profundiza</t>
   </si>
   <si>
-    <t xml:space="preserve">La química orgánica </t>
-  </si>
-  <si>
     <t xml:space="preserve">La diferencia entre compuestos orgánicos e inorgánicos
-La diferencia entre compuestos orgánicos e inorgánicos
-La diferencia entre compuestos orgánicos e inorgánicos
-La diferencia entre compuestos orgánicos e inorgánicos
 </t>
   </si>
   <si>
@@ -1796,7 +1786,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -1805,9 +1795,9 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="201" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
@@ -1927,10 +1917,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>69</v>
@@ -1941,10 +1931,10 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>70</v>
@@ -1955,10 +1945,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>71</v>
@@ -1969,10 +1959,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>72</v>
@@ -1983,10 +1973,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>69</v>
@@ -1997,10 +1987,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>70</v>
@@ -2011,10 +2001,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>71</v>
@@ -2025,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>72</v>
@@ -2039,10 +2029,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>69</v>
@@ -2053,10 +2043,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>70</v>
@@ -2067,10 +2057,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>71</v>
@@ -2081,10 +2071,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>72</v>
@@ -2095,10 +2085,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>69</v>
@@ -2109,10 +2099,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>70</v>
@@ -2123,10 +2113,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>71</v>
@@ -2137,10 +2127,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>72</v>
@@ -2151,13 +2141,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>34</v>
@@ -2171,10 +2161,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>69</v>
@@ -2185,10 +2175,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>70</v>
@@ -2199,10 +2189,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>71</v>
@@ -2213,10 +2203,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>72</v>
@@ -2227,13 +2217,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="E28" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>35</v>
@@ -2247,10 +2237,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>69</v>
@@ -2261,10 +2251,10 @@
         <v>20</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>70</v>
@@ -2275,10 +2265,10 @@
         <v>20</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>71</v>
@@ -2289,10 +2279,10 @@
         <v>20</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>72</v>
@@ -2303,10 +2293,10 @@
         <v>20</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>73</v>
@@ -2323,10 +2313,10 @@
         <v>20</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>69</v>
@@ -2337,10 +2327,10 @@
         <v>20</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>70</v>
@@ -2351,10 +2341,10 @@
         <v>20</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>71</v>
@@ -2365,10 +2355,10 @@
         <v>20</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>72</v>
@@ -2379,13 +2369,13 @@
         <v>20</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>37</v>
@@ -2399,10 +2389,10 @@
         <v>20</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>69</v>
@@ -2413,10 +2403,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>70</v>
@@ -2427,10 +2417,10 @@
         <v>20</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>71</v>
@@ -2441,10 +2431,10 @@
         <v>20</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>72</v>
@@ -2455,10 +2445,10 @@
         <v>20</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>69</v>
@@ -2469,10 +2459,10 @@
         <v>20</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>70</v>
@@ -2483,10 +2473,10 @@
         <v>20</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>71</v>
@@ -2497,10 +2487,10 @@
         <v>20</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>72</v>
@@ -2511,13 +2501,13 @@
         <v>20</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>69</v>
@@ -2528,13 +2518,13 @@
         <v>20</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>70</v>
@@ -2545,13 +2535,13 @@
         <v>20</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>71</v>
@@ -2562,13 +2552,13 @@
         <v>20</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>72</v>
@@ -2579,13 +2569,13 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>69</v>
@@ -2596,13 +2586,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>70</v>
@@ -2613,13 +2603,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>71</v>
@@ -2630,13 +2620,13 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>72</v>
@@ -2647,13 +2637,13 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>69</v>
@@ -2664,13 +2654,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>70</v>
@@ -2681,13 +2671,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>71</v>
@@ -2698,13 +2688,13 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>72</v>
@@ -2715,13 +2705,13 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>73</v>
@@ -2738,13 +2728,13 @@
         <v>20</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>69</v>
@@ -2755,13 +2745,13 @@
         <v>20</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>70</v>
@@ -2772,13 +2762,13 @@
         <v>20</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>71</v>
@@ -2789,13 +2779,13 @@
         <v>20</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>72</v>
@@ -2806,16 +2796,16 @@
         <v>20</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>41</v>
@@ -2829,13 +2819,13 @@
         <v>20</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>69</v>
@@ -2846,13 +2836,13 @@
         <v>20</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>70</v>
@@ -2863,13 +2853,13 @@
         <v>20</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>71</v>
@@ -2880,13 +2870,13 @@
         <v>20</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>72</v>
@@ -2897,10 +2887,10 @@
         <v>20</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>69</v>
@@ -2911,10 +2901,10 @@
         <v>20</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>70</v>
@@ -2925,10 +2915,10 @@
         <v>20</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>71</v>
@@ -2939,10 +2929,10 @@
         <v>20</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>72</v>
@@ -2953,16 +2943,13 @@
         <v>20</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2970,13 +2957,13 @@
         <v>20</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2984,13 +2971,13 @@
         <v>20</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2998,13 +2985,13 @@
         <v>20</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3012,13 +2999,19 @@
         <v>20</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>72</v>
+      <c r="H77" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3026,19 +3019,13 @@
         <v>20</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I78" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3046,13 +3033,13 @@
         <v>20</v>
       </c>
       <c r="B79" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E79" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3060,13 +3047,13 @@
         <v>20</v>
       </c>
       <c r="B80" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E80" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3074,13 +3061,13 @@
         <v>20</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E81" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3088,13 +3075,13 @@
         <v>20</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3102,13 +3089,13 @@
         <v>20</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3116,13 +3103,13 @@
         <v>20</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3130,13 +3117,13 @@
         <v>20</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3144,13 +3131,13 @@
         <v>20</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3158,13 +3145,13 @@
         <v>20</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3172,13 +3159,13 @@
         <v>20</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3186,13 +3173,13 @@
         <v>20</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3200,13 +3187,13 @@
         <v>20</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3214,13 +3201,13 @@
         <v>20</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3228,13 +3215,13 @@
         <v>20</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3242,13 +3229,13 @@
         <v>20</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3256,13 +3243,13 @@
         <v>20</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3270,13 +3257,13 @@
         <v>20</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3284,13 +3271,13 @@
         <v>20</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3298,13 +3285,13 @@
         <v>20</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3312,13 +3299,19 @@
         <v>20</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D98" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E98" s="9" t="s">
-        <v>72</v>
+      <c r="H98" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3326,19 +3319,13 @@
         <v>20</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I99" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3346,13 +3333,13 @@
         <v>20</v>
       </c>
       <c r="B100" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="E100" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3360,13 +3347,13 @@
         <v>20</v>
       </c>
       <c r="B101" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D101" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="E101" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3374,13 +3361,13 @@
         <v>20</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="E102" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3388,13 +3375,13 @@
         <v>20</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>97</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3402,13 +3389,13 @@
         <v>20</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3416,13 +3403,13 @@
         <v>20</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3430,13 +3417,13 @@
         <v>20</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3444,13 +3431,13 @@
         <v>20</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3458,13 +3445,13 @@
         <v>20</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3472,13 +3459,13 @@
         <v>20</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3486,13 +3473,13 @@
         <v>20</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3500,13 +3487,13 @@
         <v>20</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3514,13 +3501,13 @@
         <v>20</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3528,13 +3515,13 @@
         <v>20</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3542,13 +3529,13 @@
         <v>20</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3556,13 +3543,19 @@
         <v>20</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3570,19 +3563,13 @@
         <v>20</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3590,13 +3577,13 @@
         <v>20</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3604,13 +3591,13 @@
         <v>20</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3618,13 +3605,13 @@
         <v>20</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3632,13 +3619,19 @@
         <v>20</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3646,19 +3639,13 @@
         <v>20</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3666,13 +3653,13 @@
         <v>20</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3680,13 +3667,13 @@
         <v>20</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3694,13 +3681,13 @@
         <v>20</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3708,13 +3695,13 @@
         <v>20</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3722,13 +3709,13 @@
         <v>20</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -3736,13 +3723,13 @@
         <v>20</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3750,13 +3737,13 @@
         <v>20</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -3764,13 +3751,19 @@
         <v>20</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D129" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E129" s="9" t="s">
-        <v>72</v>
+      <c r="H129" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I129" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3778,19 +3771,13 @@
         <v>20</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I130" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -3798,13 +3785,13 @@
         <v>20</v>
       </c>
       <c r="B131" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D131" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="E131" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -3812,13 +3799,13 @@
         <v>20</v>
       </c>
       <c r="B132" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="E132" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -3826,13 +3813,13 @@
         <v>20</v>
       </c>
       <c r="B133" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D133" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="E133" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -3840,13 +3827,13 @@
         <v>20</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -3854,13 +3841,13 @@
         <v>20</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3868,13 +3855,13 @@
         <v>20</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -3882,13 +3869,13 @@
         <v>20</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -3896,13 +3883,13 @@
         <v>20</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -3910,13 +3897,13 @@
         <v>20</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3924,13 +3911,13 @@
         <v>20</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -3938,13 +3925,13 @@
         <v>20</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -3952,13 +3939,19 @@
         <v>20</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -3966,19 +3959,13 @@
         <v>20</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I143" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -3986,13 +3973,13 @@
         <v>20</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -4000,13 +3987,13 @@
         <v>20</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -4014,13 +4001,13 @@
         <v>20</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4028,13 +4015,19 @@
         <v>20</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D147" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E147" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E147" s="9" t="s">
-        <v>72</v>
+      <c r="H147" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I147" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4042,19 +4035,13 @@
         <v>20</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I148" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4062,13 +4049,13 @@
         <v>20</v>
       </c>
       <c r="B149" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D149" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D149" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="E149" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4076,13 +4063,13 @@
         <v>20</v>
       </c>
       <c r="B150" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D150" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D150" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="E150" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4090,13 +4077,13 @@
         <v>20</v>
       </c>
       <c r="B151" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D151" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D151" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="E151" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -4104,13 +4091,16 @@
         <v>20</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E152" s="9" t="s">
-        <v>72</v>
+      <c r="F152" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -4118,16 +4108,16 @@
         <v>20</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D153" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F153" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F153" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="G153" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -4135,16 +4125,16 @@
         <v>20</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D154" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F154" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F154" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="G154" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -4152,16 +4142,16 @@
         <v>20</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D155" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F155" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F155" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="G155" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -4169,16 +4159,16 @@
         <v>20</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>108</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -4186,16 +4176,16 @@
         <v>20</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -4203,16 +4193,16 @@
         <v>20</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -4220,16 +4210,16 @@
         <v>20</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -4237,16 +4227,22 @@
         <v>20</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -4254,22 +4250,16 @@
         <v>20</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H161" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I161" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -4277,16 +4267,16 @@
         <v>20</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -4294,16 +4284,16 @@
         <v>20</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -4311,16 +4301,16 @@
         <v>20</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -4328,16 +4318,22 @@
         <v>20</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I165" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -4345,22 +4341,13 @@
         <v>20</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G166" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H166" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I166" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -4368,13 +4355,13 @@
         <v>20</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -4382,13 +4369,13 @@
         <v>20</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -4396,13 +4383,13 @@
         <v>20</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4410,13 +4397,19 @@
         <v>20</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D170" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E170" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E170" s="9" t="s">
-        <v>72</v>
+      <c r="H170" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -4424,19 +4417,10 @@
         <v>20</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H171" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I171" s="10" t="s">
-        <v>67</v>
+        <v>109</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -4444,10 +4428,10 @@
         <v>20</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -4455,10 +4439,10 @@
         <v>20</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -4466,10 +4450,10 @@
         <v>20</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -4477,10 +4461,16 @@
         <v>20</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I175" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -4488,16 +4478,10 @@
         <v>20</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H176" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I176" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -4505,10 +4489,10 @@
         <v>20</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -4516,10 +4500,10 @@
         <v>20</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -4527,10 +4511,10 @@
         <v>20</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -4538,10 +4522,16 @@
         <v>20</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="H180" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -4549,16 +4539,10 @@
         <v>20</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H181" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I181" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -4566,10 +4550,10 @@
         <v>20</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -4577,10 +4561,10 @@
         <v>20</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -4588,10 +4572,10 @@
         <v>20</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -4599,10 +4583,16 @@
         <v>20</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I185" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -4613,13 +4603,10 @@
         <v>110</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H186" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -4627,29 +4614,15 @@
         <v>20</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H188" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I188" s="10" t="s">
         <v>61</v>
       </c>
     </row>
